--- a/SWE Burndown-Chart.xlsx
+++ b/SWE Burndown-Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelochsendorf/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelochsendorf/Desktop/praktikum_swe_ws1718/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
                   <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45.0</c:v>
@@ -546,7 +546,7 @@
                   <c:v>370.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>325.0</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>380.0</c:v>
@@ -708,37 +708,37 @@
                   <c:v>254.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>301.0</c:v>
+                  <c:v>291.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>346.0</c:v>
+                  <c:v>336.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>406.0</c:v>
+                  <c:v>396.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>441.0</c:v>
+                  <c:v>431.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>471.0</c:v>
+                  <c:v>461.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>501.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>511.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>521.0</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>571.0</c:v>
+                  <c:v>561.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>621.0</c:v>
+                  <c:v>611.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>651.0</c:v>
+                  <c:v>641.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>676.0</c:v>
+                  <c:v>666.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,37 +870,37 @@
                   <c:v>624.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>626.0</c:v>
+                  <c:v>561.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>716.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>726.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>736.0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>691.0</c:v>
+                  <c:v>681.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>691.0</c:v>
+                  <c:v>681.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>711.0</c:v>
+                  <c:v>701.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>711.0</c:v>
+                  <c:v>701.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>711.0</c:v>
+                  <c:v>701.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>711.0</c:v>
+                  <c:v>701.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>696.0</c:v>
+                  <c:v>686.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>676.0</c:v>
+                  <c:v>666.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,11 +923,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="377198704"/>
-        <c:axId val="374248816"/>
+        <c:axId val="1236307776"/>
+        <c:axId val="1258431568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="377198704"/>
+        <c:axId val="1236307776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +988,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374248816"/>
+        <c:crossAx val="1258431568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -996,7 +996,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374248816"/>
+        <c:axId val="1258431568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1057,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377198704"/>
+        <c:crossAx val="1236307776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1402,7 +1402,7 @@
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1552,18 +1552,18 @@
         <v>46</v>
       </c>
       <c r="B10" s="3">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="2"/>
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1579,11 +1579,11 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" si="2"/>
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1599,11 +1599,11 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" si="2"/>
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1619,11 +1619,11 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="2"/>
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1639,11 +1639,11 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" si="2"/>
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1659,11 +1659,11 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" si="2"/>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1679,11 +1679,11 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" si="2"/>
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1698,11 +1698,11 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" si="2"/>
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1718,11 +1718,11 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" si="2"/>
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" si="2"/>
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1758,11 +1758,11 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" si="2"/>
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
